--- a/IPC2024_base2010/sinrecodificar_5_2024.xlsx
+++ b/IPC2024_base2010/sinrecodificar_5_2024.xlsx
@@ -67,27 +67,27 @@
     <t>5619041</t>
   </si>
   <si>
+    <t>11112081</t>
+  </si>
+  <si>
     <t>5619021</t>
   </si>
   <si>
-    <t>11112081</t>
-  </si>
-  <si>
     <t>1145031</t>
   </si>
   <si>
     <t>1199012</t>
   </si>
   <si>
+    <t>1199022</t>
+  </si>
+  <si>
     <t>1199021</t>
   </si>
   <si>
     <t>9740061</t>
   </si>
   <si>
-    <t>1199022</t>
-  </si>
-  <si>
     <t>1183011</t>
   </si>
   <si>
@@ -139,12 +139,12 @@
     <t>5611082</t>
   </si>
   <si>
+    <t>1176031</t>
+  </si>
+  <si>
     <t>1124023</t>
   </si>
   <si>
-    <t>1176031</t>
-  </si>
-  <si>
     <t>1124022</t>
   </si>
   <si>
@@ -157,27 +157,27 @@
     <t>9740062</t>
   </si>
   <si>
+    <t>4542021</t>
+  </si>
+  <si>
     <t>1113055</t>
   </si>
   <si>
+    <t>1193032</t>
+  </si>
+  <si>
     <t>1164011</t>
   </si>
   <si>
-    <t>4542021</t>
-  </si>
-  <si>
     <t>4311061</t>
   </si>
   <si>
-    <t>1193032</t>
+    <t>13120091</t>
   </si>
   <si>
     <t>4311031</t>
   </si>
   <si>
-    <t>13120091</t>
-  </si>
-  <si>
     <t>9740042</t>
   </si>
   <si>
@@ -202,13 +202,16 @@
     <t>5213022</t>
   </si>
   <si>
+    <t>5213021</t>
+  </si>
+  <si>
+    <t>6111111</t>
+  </si>
+  <si>
     <t>1125052</t>
   </si>
   <si>
-    <t>6111111</t>
-  </si>
-  <si>
-    <t>5213021</t>
+    <t>11112051</t>
   </si>
   <si>
     <t>6111112</t>
@@ -217,63 +220,60 @@
     <t>1125042</t>
   </si>
   <si>
-    <t>11112051</t>
-  </si>
-  <si>
     <t>1145032</t>
   </si>
   <si>
     <t>5619081</t>
   </si>
   <si>
+    <t>6123021</t>
+  </si>
+  <si>
+    <t>1122024</t>
+  </si>
+  <si>
     <t>1132011</t>
   </si>
   <si>
     <t>1125062</t>
   </si>
   <si>
-    <t>1122024</t>
-  </si>
-  <si>
-    <t>6123021</t>
-  </si>
-  <si>
     <t>11112101</t>
   </si>
   <si>
+    <t>6111212</t>
+  </si>
+  <si>
+    <t>4311091</t>
+  </si>
+  <si>
     <t>11112074</t>
   </si>
   <si>
-    <t>4311091</t>
-  </si>
-  <si>
-    <t>6111212</t>
+    <t>8192011</t>
+  </si>
+  <si>
+    <t>6133012</t>
   </si>
   <si>
     <t>11112043</t>
   </si>
   <si>
-    <t>6133012</t>
-  </si>
-  <si>
     <t>1113053</t>
   </si>
   <si>
-    <t>8192011</t>
+    <t>8192012</t>
   </si>
   <si>
     <t>11112054</t>
   </si>
   <si>
-    <t>8192012</t>
+    <t>1199041</t>
   </si>
   <si>
     <t>1199042</t>
   </si>
   <si>
-    <t>1199041</t>
-  </si>
-  <si>
     <t>13131051</t>
   </si>
   <si>
@@ -283,342 +283,345 @@
     <t>1165012</t>
   </si>
   <si>
+    <t>5114011</t>
+  </si>
+  <si>
+    <t>13120104</t>
+  </si>
+  <si>
+    <t>6111113</t>
+  </si>
+  <si>
+    <t>6111152</t>
+  </si>
+  <si>
     <t>6111161</t>
   </si>
   <si>
-    <t>6111113</t>
-  </si>
-  <si>
-    <t>13120104</t>
-  </si>
-  <si>
-    <t>6111152</t>
+    <t>4311052</t>
   </si>
   <si>
     <t>11112013</t>
   </si>
   <si>
-    <t>4311052</t>
-  </si>
-  <si>
-    <t>5114011</t>
+    <t>3131021</t>
+  </si>
+  <si>
+    <t>6123022</t>
   </si>
   <si>
     <t>4311081</t>
   </si>
   <si>
-    <t>6123022</t>
-  </si>
-  <si>
-    <t>3131021</t>
+    <t>6133011</t>
+  </si>
+  <si>
+    <t>13120082</t>
+  </si>
+  <si>
+    <t>5211012</t>
+  </si>
+  <si>
+    <t>13120131</t>
+  </si>
+  <si>
+    <t>13111011</t>
   </si>
   <si>
     <t>4311051</t>
   </si>
   <si>
-    <t>5211012</t>
-  </si>
-  <si>
-    <t>6133011</t>
-  </si>
-  <si>
-    <t>13120082</t>
-  </si>
-  <si>
-    <t>13120131</t>
-  </si>
-  <si>
-    <t>13111011</t>
+    <t>9719023</t>
+  </si>
+  <si>
+    <t>9740014</t>
   </si>
   <si>
     <t>9312021</t>
   </si>
   <si>
-    <t>9740014</t>
-  </si>
-  <si>
-    <t>9719023</t>
-  </si>
-  <si>
     <t>1113052</t>
   </si>
   <si>
     <t>1194011</t>
   </si>
   <si>
+    <t>3211042</t>
+  </si>
+  <si>
     <t>13120133</t>
   </si>
   <si>
-    <t>3211042</t>
+    <t>4311072</t>
+  </si>
+  <si>
+    <t>11112022</t>
+  </si>
+  <si>
+    <t>3212032</t>
+  </si>
+  <si>
+    <t>9312023</t>
   </si>
   <si>
     <t>13120132</t>
   </si>
   <si>
-    <t>11112022</t>
-  </si>
-  <si>
-    <t>9312023</t>
-  </si>
-  <si>
-    <t>3212032</t>
-  </si>
-  <si>
     <t>13291021</t>
   </si>
   <si>
+    <t>3213021</t>
+  </si>
+  <si>
+    <t>3212031</t>
+  </si>
+  <si>
+    <t>3212012</t>
+  </si>
+  <si>
+    <t>9221011</t>
+  </si>
+  <si>
     <t>3132011</t>
   </si>
   <si>
     <t>9312022</t>
   </si>
   <si>
-    <t>3213021</t>
-  </si>
-  <si>
-    <t>9221011</t>
-  </si>
-  <si>
-    <t>3212031</t>
-  </si>
-  <si>
-    <t>3212012</t>
-  </si>
-  <si>
     <t>11112052</t>
   </si>
   <si>
+    <t>13291011</t>
+  </si>
+  <si>
+    <t>1121011</t>
+  </si>
+  <si>
+    <t>1174032</t>
+  </si>
+  <si>
+    <t>3212042</t>
+  </si>
+  <si>
     <t>6123023</t>
   </si>
   <si>
-    <t>1121011</t>
-  </si>
-  <si>
-    <t>4311072</t>
-  </si>
-  <si>
-    <t>3212042</t>
-  </si>
-  <si>
-    <t>1174032</t>
-  </si>
-  <si>
-    <t>13291011</t>
+    <t>4311071</t>
   </si>
   <si>
     <t>6111221</t>
   </si>
   <si>
+    <t>3121014</t>
+  </si>
+  <si>
+    <t>6111231</t>
+  </si>
+  <si>
+    <t>3212041</t>
+  </si>
+  <si>
+    <t>3211051</t>
+  </si>
+  <si>
     <t>3132012</t>
   </si>
   <si>
     <t>13211021</t>
   </si>
   <si>
-    <t>3212041</t>
-  </si>
-  <si>
-    <t>3121014</t>
-  </si>
-  <si>
-    <t>3211051</t>
-  </si>
-  <si>
-    <t>6111231</t>
+    <t>11112033</t>
   </si>
   <si>
     <t>1163021</t>
   </si>
   <si>
-    <t>11112033</t>
-  </si>
-  <si>
-    <t>4311071</t>
+    <t>3213032</t>
+  </si>
+  <si>
+    <t>3121091</t>
   </si>
   <si>
     <t>3121081</t>
   </si>
   <si>
-    <t>3121091</t>
-  </si>
-  <si>
-    <t>3213032</t>
+    <t>11112071</t>
+  </si>
+  <si>
+    <t>11112053</t>
+  </si>
+  <si>
+    <t>3110013</t>
   </si>
   <si>
     <t>3211041</t>
   </si>
   <si>
-    <t>11112071</t>
-  </si>
-  <si>
-    <t>11112053</t>
+    <t>3125011</t>
   </si>
   <si>
     <t>3211032</t>
   </si>
   <si>
+    <t>63110201</t>
+  </si>
+  <si>
+    <t>8192013</t>
+  </si>
+  <si>
+    <t>3125031</t>
+  </si>
+  <si>
+    <t>3110014</t>
+  </si>
+  <si>
+    <t>3121011</t>
+  </si>
+  <si>
+    <t>3121021</t>
+  </si>
+  <si>
     <t>11112014</t>
   </si>
   <si>
-    <t>3125031</t>
-  </si>
-  <si>
-    <t>3110013</t>
-  </si>
-  <si>
-    <t>63110201</t>
-  </si>
-  <si>
-    <t>3125011</t>
-  </si>
-  <si>
-    <t>3121011</t>
+    <t>13120134</t>
+  </si>
+  <si>
+    <t>9321012</t>
+  </si>
+  <si>
+    <t>3123071</t>
+  </si>
+  <si>
+    <t>3212051</t>
+  </si>
+  <si>
+    <t>3123091</t>
+  </si>
+  <si>
+    <t>8350013</t>
   </si>
   <si>
     <t>5111044</t>
   </si>
   <si>
-    <t>3121021</t>
-  </si>
-  <si>
-    <t>13120134</t>
-  </si>
-  <si>
-    <t>3110014</t>
-  </si>
-  <si>
-    <t>3123091</t>
-  </si>
-  <si>
-    <t>3212051</t>
-  </si>
-  <si>
-    <t>9321012</t>
-  </si>
-  <si>
-    <t>8192013</t>
-  </si>
-  <si>
     <t>11112064</t>
   </si>
   <si>
+    <t>4311092</t>
+  </si>
+  <si>
+    <t>6131013</t>
+  </si>
+  <si>
+    <t>3131022</t>
+  </si>
+  <si>
+    <t>11112084</t>
+  </si>
+  <si>
+    <t>8350012</t>
+  </si>
+  <si>
+    <t>13211031</t>
+  </si>
+  <si>
     <t>3121012</t>
   </si>
   <si>
+    <t>3122041</t>
+  </si>
+  <si>
+    <t>13291012</t>
+  </si>
+  <si>
+    <t>3211052</t>
+  </si>
+  <si>
     <t>1176032</t>
   </si>
   <si>
-    <t>6131013</t>
-  </si>
-  <si>
-    <t>8350013</t>
-  </si>
-  <si>
-    <t>8350012</t>
-  </si>
-  <si>
-    <t>13211031</t>
-  </si>
-  <si>
-    <t>3131022</t>
-  </si>
-  <si>
-    <t>4311092</t>
-  </si>
-  <si>
-    <t>11112084</t>
-  </si>
-  <si>
-    <t>3122041</t>
-  </si>
-  <si>
-    <t>3211052</t>
-  </si>
-  <si>
-    <t>3123071</t>
-  </si>
-  <si>
-    <t>13291012</t>
-  </si>
-  <si>
     <t>8131023</t>
   </si>
   <si>
+    <t>13211032</t>
+  </si>
+  <si>
+    <t>6123011</t>
+  </si>
+  <si>
     <t>13132012</t>
   </si>
   <si>
-    <t>13211032</t>
-  </si>
-  <si>
-    <t>6123011</t>
+    <t>3125012</t>
   </si>
   <si>
     <t>3121102</t>
   </si>
   <si>
-    <t>3125012</t>
+    <t>3124041</t>
+  </si>
+  <si>
+    <t>3212052</t>
   </si>
   <si>
     <t>9212032</t>
   </si>
   <si>
-    <t>3124041</t>
+    <t>3123081</t>
+  </si>
+  <si>
+    <t>4321012</t>
+  </si>
+  <si>
+    <t>13211022</t>
+  </si>
+  <si>
+    <t>6122012</t>
   </si>
   <si>
     <t>9321013</t>
   </si>
   <si>
-    <t>6122012</t>
+    <t>8350011</t>
   </si>
   <si>
     <t>3122061</t>
   </si>
   <si>
-    <t>3123081</t>
+    <t>3124051</t>
   </si>
   <si>
     <t>11112062</t>
   </si>
   <si>
-    <t>3212052</t>
-  </si>
-  <si>
     <t>3124022</t>
   </si>
   <si>
-    <t>8350011</t>
-  </si>
-  <si>
-    <t>3124051</t>
-  </si>
-  <si>
-    <t>13211022</t>
+    <t>3211031</t>
   </si>
   <si>
     <t>9462021</t>
   </si>
   <si>
+    <t>6122011</t>
+  </si>
+  <si>
+    <t>11112042</t>
+  </si>
+  <si>
+    <t>3124052</t>
+  </si>
+  <si>
     <t>10509012</t>
   </si>
   <si>
+    <t>9212031</t>
+  </si>
+  <si>
     <t>5311023</t>
   </si>
   <si>
-    <t>6122011</t>
-  </si>
-  <si>
-    <t>3211031</t>
-  </si>
-  <si>
-    <t>11112042</t>
-  </si>
-  <si>
-    <t>9212031</t>
-  </si>
-  <si>
-    <t>3124052</t>
-  </si>
-  <si>
     <t>8131021</t>
   </si>
   <si>
@@ -628,15 +631,24 @@
     <t>13909032</t>
   </si>
   <si>
+    <t>13111012</t>
+  </si>
+  <si>
+    <t>11112111</t>
+  </si>
+  <si>
     <t>13291031</t>
   </si>
   <si>
-    <t>13111012</t>
+    <t>3125021</t>
   </si>
   <si>
     <t>3122011</t>
   </si>
   <si>
+    <t>6411023</t>
+  </si>
+  <si>
     <t>11112023</t>
   </si>
   <si>
@@ -646,66 +658,54 @@
     <t>11112015</t>
   </si>
   <si>
-    <t>3125021</t>
-  </si>
-  <si>
-    <t>4321012</t>
-  </si>
-  <si>
-    <t>6411023</t>
+    <t>6310051</t>
+  </si>
+  <si>
+    <t>10509013</t>
   </si>
   <si>
     <t>11112031</t>
   </si>
   <si>
-    <t>11112111</t>
-  </si>
-  <si>
-    <t>6310051</t>
-  </si>
-  <si>
-    <t>10509013</t>
-  </si>
-  <si>
     <t>3125022</t>
   </si>
   <si>
+    <t>4321011</t>
+  </si>
+  <si>
+    <t>8132011</t>
+  </si>
+  <si>
     <t>5212021</t>
   </si>
   <si>
-    <t>4321011</t>
+    <t>1122033</t>
+  </si>
+  <si>
+    <t>7322021</t>
   </si>
   <si>
     <t>10509014</t>
   </si>
   <si>
-    <t>1122033</t>
-  </si>
-  <si>
-    <t>7322021</t>
-  </si>
-  <si>
-    <t>8132011</t>
+    <t>3124062</t>
+  </si>
+  <si>
+    <t>3124012</t>
+  </si>
+  <si>
+    <t>5212022</t>
   </si>
   <si>
     <t>3126011</t>
   </si>
   <si>
+    <t>3122012</t>
+  </si>
+  <si>
     <t>8131022</t>
   </si>
   <si>
-    <t>3124062</t>
-  </si>
-  <si>
-    <t>3124012</t>
-  </si>
-  <si>
-    <t>5212022</t>
-  </si>
-  <si>
-    <t>3122012</t>
-  </si>
-  <si>
     <t>9321011</t>
   </si>
   <si>
@@ -799,27 +799,27 @@
     <t>Papel aluminio</t>
   </si>
   <si>
+    <t>Porción de papas fritas</t>
+  </si>
+  <si>
     <t>Insecticida en spray</t>
   </si>
   <si>
-    <t>Porción de papas fritas</t>
-  </si>
-  <si>
     <t>Queso mozzarella rallado</t>
   </si>
   <si>
     <t>Cremas para sopas</t>
   </si>
   <si>
+    <t>Pediasure en polvo</t>
+  </si>
+  <si>
     <t>Ensure en polvo</t>
   </si>
   <si>
     <t>Crayones de madera de 12 unidades</t>
   </si>
   <si>
-    <t>Pediasure en polvo</t>
-  </si>
-  <si>
     <t>Miel envasada de 340g</t>
   </si>
   <si>
@@ -871,12 +871,12 @@
     <t>Paquete de 2 o 3 unidades de esponjas para trastes</t>
   </si>
   <si>
+    <t>Frijoles blancos secos</t>
+  </si>
+  <si>
     <t>Lengua de res</t>
   </si>
   <si>
-    <t>Frijoles blancos secos</t>
-  </si>
-  <si>
     <t>Patas de res</t>
   </si>
   <si>
@@ -889,27 +889,27 @@
     <t>Crayones de madera de 24 unidades</t>
   </si>
   <si>
+    <t>Manojo de ocote</t>
+  </si>
+  <si>
     <t>Donas</t>
   </si>
   <si>
+    <t>Ablandadores</t>
+  </si>
+  <si>
     <t>Fresas frescas</t>
   </si>
   <si>
-    <t>Manojo de ocote</t>
-  </si>
-  <si>
     <t>Tubo de pvc 1/2"</t>
   </si>
   <si>
-    <t>Ablandadores</t>
+    <t>Paquete de hisopos de 50 a 150 unidades</t>
   </si>
   <si>
     <t>Cal hidratada de 20 kilogramos para usos en acabados y repellos</t>
   </si>
   <si>
-    <t>Paquete de hisopos de 50 a 150 unidades</t>
-  </si>
-  <si>
     <t>Paquete de 100 hojas bond de cuadrícula o líneas (60 gramos)</t>
   </si>
   <si>
@@ -934,13 +934,16 @@
     <t>Toallas de manos y/o rostro de tela</t>
   </si>
   <si>
+    <t>Toallas de baño de tela</t>
+  </si>
+  <si>
+    <t>Pregabalina comprimido 150 mg</t>
+  </si>
+  <si>
     <t>Tortas de carne de pollo</t>
   </si>
   <si>
-    <t>Pregabalina comprimido 150 mg</t>
-  </si>
-  <si>
-    <t>Toallas de baño de tela</t>
+    <t>Tacos y gringas (mexicanos)</t>
   </si>
   <si>
     <t>Gabapentina comprimido 300 y 400 mg</t>
@@ -949,63 +952,60 @@
     <t>Milanesa de pollo</t>
   </si>
   <si>
-    <t>Tacos y gringas (mexicanos)</t>
-  </si>
-  <si>
     <t>Queso mozzarella no rallado</t>
   </si>
   <si>
     <t>Lazo trenzado plástico (7 - 15 metros)</t>
   </si>
   <si>
+    <t>Paquete de algodón de 100 a 200g</t>
+  </si>
+  <si>
+    <t>Carne de cerdo con hueso</t>
+  </si>
+  <si>
     <t>Pescado seco (incluye bacalao, bagre, bonito)</t>
   </si>
   <si>
     <t>Alitas de pollo marinadas (barbacoa, especies, etc.)</t>
   </si>
   <si>
-    <t>Carne de cerdo con hueso</t>
-  </si>
-  <si>
-    <t>Paquete de algodón de 100 a 200g</t>
-  </si>
-  <si>
     <t>Atoles</t>
   </si>
   <si>
+    <t>Alcohol medicinal gel</t>
+  </si>
+  <si>
+    <t>Ventanas de pvc blanco de 1x1m, doble corrediza</t>
+  </si>
+  <si>
     <t>Porción de helado (2 bolas)</t>
   </si>
   <si>
-    <t>Ventanas de pvc blanco de 1x1m, doble corrediza</t>
-  </si>
-  <si>
-    <t>Alcohol medicinal gel</t>
+    <t>Cable cargador para teléfono móvil</t>
+  </si>
+  <si>
+    <t>Ropa interior desechable unisex</t>
   </si>
   <si>
     <t>Pan con carne (res, pollo y cerdo)</t>
   </si>
   <si>
-    <t>Ropa interior desechable unisex</t>
-  </si>
-  <si>
     <t>Campechanas y Lenguas</t>
   </si>
   <si>
-    <t>Cable cargador para teléfono móvil</t>
+    <t>Cable cargador y cubo para teléfono móvil</t>
   </si>
   <si>
     <t>Flautas, dobladas y tacos fritos</t>
   </si>
   <si>
-    <t>Cable cargador y cubo para teléfono móvil</t>
+    <t>Hoja de plátano</t>
   </si>
   <si>
     <t>Hoja de maíz (tusa)</t>
   </si>
   <si>
-    <t>Hoja de plátano</t>
-  </si>
-  <si>
     <t>Servicio de depilación de ceja</t>
   </si>
   <si>
@@ -1015,342 +1015,345 @@
     <t>Uvas verdes frescas</t>
   </si>
   <si>
+    <t>Espejo colgante con marco</t>
+  </si>
+  <si>
+    <t>Bloqueador de 30 a 50ml, protección solar FPS de 50</t>
+  </si>
+  <si>
+    <t>Clonazepam comprimido de 2mg</t>
+  </si>
+  <si>
+    <t>Colágeno hidrolizado y glucosamina</t>
+  </si>
+  <si>
     <t>Relajantes musculares en ungüento</t>
   </si>
   <si>
-    <t>Clonazepam comprimido de 2mg</t>
-  </si>
-  <si>
-    <t>Bloqueador de 30 a 50ml, protección solar FPS de 50</t>
-  </si>
-  <si>
-    <t>Colágeno hidrolizado y glucosamina</t>
+    <t>Piedrín (1/2 cúbico)</t>
   </si>
   <si>
     <t>Combo individual de pizza</t>
   </si>
   <si>
-    <t>Piedrín (1/2 cúbico)</t>
-  </si>
-  <si>
-    <t>Espejo colgante con marco</t>
+    <t>Gorras ajustables</t>
+  </si>
+  <si>
+    <t>Curitas sueltas</t>
   </si>
   <si>
     <t>Piso cerámico para interior uso doméstico m²</t>
   </si>
   <si>
-    <t>Curitas sueltas</t>
-  </si>
-  <si>
-    <t>Gorras ajustables</t>
+    <t>Protectores nocturnos y diurnos</t>
+  </si>
+  <si>
+    <t>Pack de 3 a 4 paquetes (de 40 a 80 unidades) de toallas húmedas para bebés</t>
+  </si>
+  <si>
+    <t>Cortinas de plástico o poliéster</t>
+  </si>
+  <si>
+    <t>Pestañas postizas</t>
+  </si>
+  <si>
+    <t>Afeitadora rotativa de 2 o 3 cabezales</t>
   </si>
   <si>
     <t>Arena de río (1/2 metro cúbico)</t>
   </si>
   <si>
-    <t>Cortinas de plástico o poliéster</t>
-  </si>
-  <si>
-    <t>Protectores nocturnos y diurnos</t>
-  </si>
-  <si>
-    <t>Pack de 3 a 4 paquetes (de 40 a 80 unidades) de toallas húmedas para bebés</t>
-  </si>
-  <si>
-    <t>Pestañas postizas</t>
-  </si>
-  <si>
-    <t>Afeitadora rotativa de 2 o 3 cabezales</t>
+    <t>Libros de lectura complementaria</t>
+  </si>
+  <si>
+    <t>Estuche de tela para lápices de un compartimiento</t>
   </si>
   <si>
     <t>Macetas con flores</t>
   </si>
   <si>
-    <t>Estuche de tela para lápices de un compartimiento</t>
-  </si>
-  <si>
-    <t>Libros de lectura complementaria</t>
-  </si>
-  <si>
     <t>Roscas</t>
   </si>
   <si>
     <t>Chile seco entero (guaque, pasa, etc.)</t>
   </si>
   <si>
+    <t>Tenis o zapatillas para hombre</t>
+  </si>
+  <si>
     <t>Tinte para el cabello</t>
   </si>
   <si>
-    <t>Tenis o zapatillas para hombre</t>
+    <t>Parales de madera</t>
+  </si>
+  <si>
+    <t>Combo de comida rápida familiar de pizza</t>
+  </si>
+  <si>
+    <t>Sandalias con tacón o plataforma para mujer</t>
+  </si>
+  <si>
+    <t>Macetas con hierbas de cocina</t>
   </si>
   <si>
     <t>Pegamento para pestañas postizas</t>
   </si>
   <si>
-    <t>Combo de comida rápida familiar de pizza</t>
-  </si>
-  <si>
-    <t>Macetas con hierbas de cocina</t>
-  </si>
-  <si>
-    <t>Sandalias con tacón o plataforma para mujer</t>
-  </si>
-  <si>
     <t>Ataúd de madera barnizada color natural</t>
   </si>
   <si>
+    <t>Zapatos escolares para niña (menores a 13 años)</t>
+  </si>
+  <si>
+    <t>Sandalias sin tacón para mujer</t>
+  </si>
+  <si>
+    <t>Zapatos tipo chinita de material distinto a cuero para mujer</t>
+  </si>
+  <si>
+    <t>Calzado de futbol con tacos para niños</t>
+  </si>
+  <si>
     <t>Hilo para coser</t>
   </si>
   <si>
     <t>Macetas con suculentas</t>
   </si>
   <si>
-    <t>Zapatos escolares para niña (menores a 13 años)</t>
-  </si>
-  <si>
-    <t>Calzado de futbol con tacos para niños</t>
-  </si>
-  <si>
-    <t>Sandalias sin tacón para mujer</t>
-  </si>
-  <si>
-    <t>Zapatos tipo chinita de material distinto a cuero para mujer</t>
-  </si>
-  <si>
     <t>Tortillas de harina con carne (res, pollo, cerdo o mixta)</t>
   </si>
   <si>
+    <t>Sombrilla/paraguas plegable</t>
+  </si>
+  <si>
+    <t>Pollos, gallinas y gallos vivos</t>
+  </si>
+  <si>
+    <t>Cebollas amarillas</t>
+  </si>
+  <si>
+    <t>Botas bajas para mujer</t>
+  </si>
+  <si>
     <t>Caja de curitas de 20 unidades, plásticas color piel</t>
   </si>
   <si>
-    <t>Pollos, gallinas y gallos vivos</t>
-  </si>
-  <si>
-    <t>Parales de madera</t>
-  </si>
-  <si>
-    <t>Botas bajas para mujer</t>
-  </si>
-  <si>
-    <t>Cebollas amarillas</t>
-  </si>
-  <si>
-    <t>Sombrilla/paraguas plegable</t>
+    <t>Tablas de madera</t>
   </si>
   <si>
     <t>Mercuriocromo líquido al 2% (1 onz fl o 30ml)</t>
   </si>
   <si>
+    <t>Chumpa enguatada para hombres (mayores de 12 años)</t>
+  </si>
+  <si>
+    <t>Mertiolate o metafe líquido (1 onz fl o 30 ml)</t>
+  </si>
+  <si>
+    <t>Botas altas para mujer</t>
+  </si>
+  <si>
+    <t>Sandalias para hombre</t>
+  </si>
+  <si>
     <t>Hilo para bordar</t>
   </si>
   <si>
     <t>Cadena para dijes de plata (40 a 50cm)</t>
   </si>
   <si>
-    <t>Botas altas para mujer</t>
-  </si>
-  <si>
-    <t>Chumpa enguatada para hombres (mayores de 12 años)</t>
-  </si>
-  <si>
-    <t>Sandalias para hombre</t>
-  </si>
-  <si>
-    <t>Mertiolate o metafe líquido (1 onz fl o 30 ml)</t>
+    <t>Platos preparados de comida china</t>
   </si>
   <si>
     <t>Duraznos</t>
   </si>
   <si>
-    <t>Platos preparados de comida china</t>
-  </si>
-  <si>
-    <t>Tablas de madera</t>
+    <t>Tenis (Zapatillas) para niño (menores a 13 años)</t>
+  </si>
+  <si>
+    <t>Pantalonetas deportivas para hombres (mayores de 12 años)</t>
   </si>
   <si>
     <t>Pantalones largos deportivo para hombres (mayores a 12 años)</t>
   </si>
   <si>
-    <t>Pantalonetas deportivas para hombres (mayores de 12 años)</t>
-  </si>
-  <si>
-    <t>Tenis (Zapatillas) para niño (menores a 13 años)</t>
+    <t>Ensalada de frutas preparadas</t>
+  </si>
+  <si>
+    <t>Tortillas con carne o mixtas y shukos</t>
+  </si>
+  <si>
+    <t>Telas para faldas</t>
   </si>
   <si>
     <t>Tenis o zapatillas de material textil para hombre</t>
   </si>
   <si>
-    <t>Ensalada de frutas preparadas</t>
-  </si>
-  <si>
-    <t>Tortillas con carne o mixtas y shukos</t>
+    <t>Camisas para bebés (menores de 2 años)</t>
   </si>
   <si>
     <t>Botas acordonadas para hombre</t>
   </si>
   <si>
+    <t>Hospitalización sin cirugía</t>
+  </si>
+  <si>
+    <t>Pad para cargar el teléfono móvil</t>
+  </si>
+  <si>
+    <t>Pantalones para bebés (menores de 2 años)</t>
+  </si>
+  <si>
+    <t>Telas tradicionales</t>
+  </si>
+  <si>
+    <t>Chumpa de cuero o cuerina para hombres (mayores de 12 años)</t>
+  </si>
+  <si>
+    <t>Suéteres de algodón cerrados o abiertos para hombres (mayores de 12 años)</t>
+  </si>
+  <si>
     <t>Combo individual de comida china</t>
   </si>
   <si>
-    <t>Pantalones para bebés (menores de 2 años)</t>
-  </si>
-  <si>
-    <t>Telas para faldas</t>
-  </si>
-  <si>
-    <t>Hospitalización sin cirugía</t>
-  </si>
-  <si>
-    <t>Camisas para bebés (menores de 2 años)</t>
-  </si>
-  <si>
-    <t>Chumpa de cuero o cuerina para hombres (mayores de 12 años)</t>
+    <t>Esmalte para uñas</t>
+  </si>
+  <si>
+    <t>Compra de aves</t>
+  </si>
+  <si>
+    <t>Vestidos de fiesta o gala largos para mujeres (mayores de 12 años)</t>
+  </si>
+  <si>
+    <t>Chanclas para mujer</t>
+  </si>
+  <si>
+    <t>Traje tradicional para mujeres (mayores de 12 años), incluye güipil y corte</t>
+  </si>
+  <si>
+    <t>Remplazo de pantalla de celular Samsung Galaxy</t>
   </si>
   <si>
     <t>Colchón de resorte matrimonial</t>
   </si>
   <si>
-    <t>Suéteres de algodón cerrados o abiertos para hombres (mayores de 12 años)</t>
-  </si>
-  <si>
-    <t>Esmalte para uñas</t>
-  </si>
-  <si>
-    <t>Telas tradicionales</t>
-  </si>
-  <si>
-    <t>Traje tradicional para mujeres (mayores de 12 años), incluye güipil y corte</t>
-  </si>
-  <si>
-    <t>Chanclas para mujer</t>
-  </si>
-  <si>
-    <t>Compra de aves</t>
-  </si>
-  <si>
-    <t>Pad para cargar el teléfono móvil</t>
-  </si>
-  <si>
     <t>Pupusas y Tayuyos</t>
   </si>
   <si>
+    <t>Puerta lisa para interior de color natural 0.90x2m</t>
+  </si>
+  <si>
+    <t>Lentes de contacto</t>
+  </si>
+  <si>
+    <t>Gorras no ajustables</t>
+  </si>
+  <si>
+    <t>Ensalada de verduras preparadas</t>
+  </si>
+  <si>
+    <t>Remplazo de batería de celular</t>
+  </si>
+  <si>
+    <t>Aretes de bebé</t>
+  </si>
+  <si>
     <t>Chumpa impermeable para hombres (mayores de 12 años)</t>
   </si>
   <si>
+    <t>Pantalones de vestir para niños (mayores de 2 y menores de 12 años)</t>
+  </si>
+  <si>
+    <t>Sombrilla/paraguas tipo bastón</t>
+  </si>
+  <si>
+    <t>Chanclas para hombre</t>
+  </si>
+  <si>
     <t>Frijoles piloy secos</t>
   </si>
   <si>
-    <t>Lentes de contacto</t>
-  </si>
-  <si>
-    <t>Remplazo de pantalla de celular Samsung Galaxy</t>
-  </si>
-  <si>
-    <t>Remplazo de batería de celular</t>
-  </si>
-  <si>
-    <t>Aretes de bebé</t>
-  </si>
-  <si>
-    <t>Gorras no ajustables</t>
-  </si>
-  <si>
-    <t>Puerta lisa para interior de color natural 0.90x2m</t>
-  </si>
-  <si>
-    <t>Ensalada de verduras preparadas</t>
-  </si>
-  <si>
-    <t>Pantalones de vestir para niños (mayores de 2 y menores de 12 años)</t>
-  </si>
-  <si>
-    <t>Chanclas para hombre</t>
-  </si>
-  <si>
-    <t>Vestidos de fiesta o gala largos para mujeres (mayores de 12 años)</t>
-  </si>
-  <si>
-    <t>Sombrilla/paraguas tipo bastón</t>
-  </si>
-  <si>
     <t>Tablet de 8" a 11", 32 GB - 64GB, Wifi</t>
   </si>
   <si>
+    <t>Argollas clásicas</t>
+  </si>
+  <si>
+    <t>Plantillas ortopédicas</t>
+  </si>
+  <si>
     <t>Servicio de pedicura</t>
   </si>
   <si>
-    <t>Argollas clásicas</t>
-  </si>
-  <si>
-    <t>Plantillas ortopédicas</t>
+    <t>Blusas para bebés (menores de 2 años)</t>
   </si>
   <si>
     <t>Sacos formales y casuales para hombres (mayores de 12 años)</t>
   </si>
   <si>
-    <t>Blusas para bebés (menores de 2 años)</t>
+    <t>Traje tradicional para niñas (mayores de 2 y menores de 12 años), incluye güipil y corte</t>
+  </si>
+  <si>
+    <t>Caites para mujer</t>
   </si>
   <si>
     <t>Triciclo con o sin pedales</t>
   </si>
   <si>
-    <t>Traje tradicional para niñas (mayores de 2 y menores de 12 años), incluye güipil y corte</t>
+    <t>Faldas formales de tela a media rodilla para mujeres (mayores de 12 años)</t>
+  </si>
+  <si>
+    <t>Servicio de electricista</t>
+  </si>
+  <si>
+    <t>Cadena para dijes de oro (40 a 50cm)</t>
+  </si>
+  <si>
+    <t>Medias de compresión 20/30</t>
   </si>
   <si>
     <t>Compra de peces</t>
   </si>
   <si>
-    <t>Medias de compresión 20/30</t>
+    <t>Cambio de batería de laptop</t>
   </si>
   <si>
     <t>Trajes formales para niños (mayores de 2 y menores de 12 años)</t>
   </si>
   <si>
-    <t>Faldas formales de tela a media rodilla para mujeres (mayores de 12 años)</t>
+    <t>Güipil para niñas (mayores de 2 y menores de 12 años)</t>
   </si>
   <si>
     <t>Tamalitos sin carne (tamalito de chipilín, loroco, chepes, etc.)</t>
   </si>
   <si>
-    <t>Caites para mujer</t>
-  </si>
-  <si>
     <t>Blusas con botones para niñas (mayores de 2 y menores de 12 años)</t>
   </si>
   <si>
-    <t>Cambio de batería de laptop</t>
-  </si>
-  <si>
-    <t>Güipil para niñas (mayores de 2 y menores de 12 años)</t>
-  </si>
-  <si>
-    <t>Cadena para dijes de oro (40 a 50cm)</t>
+    <t>Botas vaqueras para hombre</t>
   </si>
   <si>
     <t>Clases de futbol para niños entre 4 y 17 años</t>
   </si>
   <si>
+    <t>Medias de compresión 15/20</t>
+  </si>
+  <si>
+    <t>Hot dogs y chéveres</t>
+  </si>
+  <si>
+    <t>Corte para niñas (mayores de 2 y menores de 12 años)</t>
+  </si>
+  <si>
     <t>Cursos de estilista</t>
   </si>
   <si>
+    <t>Carrito montable sin pedales</t>
+  </si>
+  <si>
     <t>Estufa de leña</t>
   </si>
   <si>
-    <t>Medias de compresión 15/20</t>
-  </si>
-  <si>
-    <t>Botas vaqueras para hombre</t>
-  </si>
-  <si>
-    <t>Hot dogs y chéveres</t>
-  </si>
-  <si>
-    <t>Carrito montable sin pedales</t>
-  </si>
-  <si>
-    <t>Corte para niñas (mayores de 2 y menores de 12 años)</t>
-  </si>
-  <si>
     <t>Samsung Galaxy Tab S9 Wifi, 128 GB, 11"</t>
   </si>
   <si>
@@ -1360,15 +1363,24 @@
     <t>Determinación de edad (Certificado de nacimiento)</t>
   </si>
   <si>
+    <t>Cortadora de cabello</t>
+  </si>
+  <si>
+    <t>Paquetes de cumpleaños</t>
+  </si>
+  <si>
     <t>Arriendo de nicho por año</t>
   </si>
   <si>
-    <t>Cortadora de cabello</t>
+    <t>Suéteres con capucha para bebés (menores de 2 años)</t>
   </si>
   <si>
     <t>Chumpas y chaquetas deportivas de algodón para niños (mayores de 2 y menores de 12 años)</t>
   </si>
   <si>
+    <t>Examen de Covid</t>
+  </si>
+  <si>
     <t>Combo de comida rápida familiar de comida china</t>
   </si>
   <si>
@@ -1378,64 +1390,52 @@
     <t>Combo individual de comida mexicana</t>
   </si>
   <si>
-    <t>Suéteres con capucha para bebés (menores de 2 años)</t>
-  </si>
-  <si>
-    <t>Servicio de electricista</t>
-  </si>
-  <si>
-    <t>Examen de Covid</t>
+    <t>Hospitalización por covid</t>
+  </si>
+  <si>
+    <t>Cursos de corte y confección</t>
   </si>
   <si>
     <t>Platos preparados típicos</t>
   </si>
   <si>
-    <t>Paquetes de cumpleaños</t>
-  </si>
-  <si>
-    <t>Hospitalización por covid</t>
-  </si>
-  <si>
-    <t>Cursos de corte y confección</t>
-  </si>
-  <si>
     <t>Suéteres sin capucha para bebés (menores de 2 años)</t>
   </si>
   <si>
+    <t>Servicio de plomería</t>
+  </si>
+  <si>
+    <t>Impresora HP 3775 Multifuncional DeskJet Ink Advantage</t>
+  </si>
+  <si>
     <t>Hamacas de tela</t>
   </si>
   <si>
-    <t>Servicio de plomería</t>
+    <t>Carne de pollo criollo o de patio</t>
+  </si>
+  <si>
+    <t>Alquiler de vehículo por día, kilometraje ilimitado</t>
   </si>
   <si>
     <t>Cursos de enfermería</t>
   </si>
   <si>
-    <t>Carne de pollo criollo o de patio</t>
-  </si>
-  <si>
-    <t>Alquiler de vehículo por día, kilometraje ilimitado</t>
-  </si>
-  <si>
-    <t>Impresora HP 3775 Multifuncional DeskJet Ink Advantage</t>
+    <t>Vestidos de tirantes para niñas (mayores de 2 y menores de 12 años)</t>
+  </si>
+  <si>
+    <t>Suéteres cerrados para niñas (mayores de 2 y menores de 12 años)</t>
+  </si>
+  <si>
+    <t>Hamacas de lazo o pita</t>
   </si>
   <si>
     <t>Chumpas o suéter escolares en general</t>
   </si>
   <si>
+    <t>Chumpas y chaquetas impermeables y enguatadas para niños (mayores de 2 y menores de 12 años)</t>
+  </si>
+  <si>
     <t>Apple iPad 9na Gen, 10.2", 256GB, Wi-Fi</t>
-  </si>
-  <si>
-    <t>Vestidos de tirantes para niñas (mayores de 2 y menores de 12 años)</t>
-  </si>
-  <si>
-    <t>Suéteres cerrados para niñas (mayores de 2 y menores de 12 años)</t>
-  </si>
-  <si>
-    <t>Hamacas de lazo o pita</t>
-  </si>
-  <si>
-    <t>Chumpas y chaquetas impermeables y enguatadas para niños (mayores de 2 y menores de 12 años)</t>
   </si>
   <si>
     <t>Compra de perritos (chihuahua)</t>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -2488,12 +2488,12 @@
         <v>291</v>
       </c>
       <c r="D46">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -2502,12 +2502,12 @@
         <v>292</v>
       </c>
       <c r="D47">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -2754,12 +2754,12 @@
         <v>310</v>
       </c>
       <c r="D65">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -2922,7 +2922,7 @@
         <v>322</v>
       </c>
       <c r="D77">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2941,7 +2941,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -2992,12 +2992,12 @@
         <v>327</v>
       </c>
       <c r="D82">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
@@ -3398,7 +3398,7 @@
         <v>356</v>
       </c>
       <c r="D111">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3417,7 +3417,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
@@ -3454,12 +3454,12 @@
         <v>360</v>
       </c>
       <c r="D115">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
@@ -3468,12 +3468,12 @@
         <v>361</v>
       </c>
       <c r="D116">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
@@ -3552,12 +3552,12 @@
         <v>367</v>
       </c>
       <c r="D122">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
@@ -3650,12 +3650,12 @@
         <v>374</v>
       </c>
       <c r="D129">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
@@ -3664,12 +3664,12 @@
         <v>375</v>
       </c>
       <c r="D130">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
@@ -3678,12 +3678,12 @@
         <v>376</v>
       </c>
       <c r="D131">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B135" t="s">
         <v>136</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
@@ -3748,7 +3748,7 @@
         <v>381</v>
       </c>
       <c r="D136">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3767,7 +3767,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
@@ -3776,12 +3776,12 @@
         <v>383</v>
       </c>
       <c r="D138">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3874,12 +3874,12 @@
         <v>390</v>
       </c>
       <c r="D145">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3972,7 +3972,7 @@
         <v>397</v>
       </c>
       <c r="D152">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3986,12 +3986,12 @@
         <v>398</v>
       </c>
       <c r="D153">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4000,12 +4000,12 @@
         <v>399</v>
       </c>
       <c r="D154">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4084,12 +4084,12 @@
         <v>405</v>
       </c>
       <c r="D160">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4098,12 +4098,12 @@
         <v>406</v>
       </c>
       <c r="D161">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4322,12 +4322,12 @@
         <v>422</v>
       </c>
       <c r="D177">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4392,12 +4392,12 @@
         <v>427</v>
       </c>
       <c r="D182">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4406,12 +4406,12 @@
         <v>428</v>
       </c>
       <c r="D183">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4532,12 +4532,12 @@
         <v>437</v>
       </c>
       <c r="D192">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4644,12 +4644,12 @@
         <v>445</v>
       </c>
       <c r="D200">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4714,12 +4714,12 @@
         <v>450</v>
       </c>
       <c r="D205">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4728,12 +4728,12 @@
         <v>451</v>
       </c>
       <c r="D206">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4812,12 +4812,12 @@
         <v>457</v>
       </c>
       <c r="D212">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4896,12 +4896,12 @@
         <v>463</v>
       </c>
       <c r="D218">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4910,7 +4910,7 @@
         <v>464</v>
       </c>
       <c r="D219">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4943,7 +4943,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1">
-        <v>208</v>
+        <v>6</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4966,12 +4966,12 @@
         <v>468</v>
       </c>
       <c r="D223">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="1">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="1">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="1">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="1">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
